--- a/testData/password_strategy_test_data.xlsx
+++ b/testData/password_strategy_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_strategy" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="171">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -543,10 +543,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.183</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>server2003</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -609,10 +605,6 @@
   <si>
     <t>要账号管理的资源名称2</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>访问失败次数2</t>
@@ -703,6 +695,22 @@
   </si>
   <si>
     <t xml:space="preserve"> test_F07_S22_resource_account_association_010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzfa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试密码策略</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.11.11.11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试密码策略</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>67</v>
@@ -1408,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1431,16 +1439,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>162</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>127</v>
@@ -1448,13 +1456,13 @@
     </row>
     <row r="2" spans="1:7" ht="86.4">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>26</v>
@@ -1466,30 +1474,30 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1592,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>15</v>
@@ -1626,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2385,7 +2393,7 @@
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="2" t="s">
@@ -2521,13 +2529,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -2535,7 +2543,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2547,10 +2555,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2564,7 +2572,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2642,16 +2650,16 @@
     </row>
     <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>8</v>
@@ -2687,21 +2695,21 @@
         <v>123</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>8</v>
@@ -2737,7 +2745,7 @@
         <v>123</v>
       </c>
       <c r="R3" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2767,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2790,43 +2798,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>144</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="P1" s="14" t="s">
         <v>127</v>
@@ -2834,19 +2842,19 @@
     </row>
     <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>129</v>
@@ -2858,7 +2866,7 @@
         <v>129</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>129</v>
@@ -2879,7 +2887,7 @@
         <v>129</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
